--- a/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.86</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1409,13 +1452,989 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2365,7 +2366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2376,17 +2377,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2396,14 +2417,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.56</v>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2412,14 +2455,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.86</v>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2428,13 +2493,2147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4548,7 +4549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4559,17 +4560,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4579,14 +4600,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.29</v>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4595,14 +4638,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.56</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4611,14 +4676,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.86</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4627,13 +4714,5725 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9691</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8537</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5910</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5527</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4872</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4700</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>35.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014937</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>151</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D2" t="n">
-        <v>37.25</v>
+        <v>63.78</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="D3" t="n">
-        <v>10.29</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>3.56</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.86</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -566,6 +583,8754 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H230"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8929</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1868</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0402</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4856</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2518</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0156</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8494</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7957</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7897</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6574</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>103.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5920</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5859</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012314</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方行业领先混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4317</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4298</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4271</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4233</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015669</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>013358</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>上银高质量优选9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>015392</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015391</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>013359</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>上银高质量优选9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>015745</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6347,7 +15112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8529,7 +17294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9531,7 +18296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9777,7 +18542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002738-中矿资源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>63.78</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D3" t="n">
-        <v>37.25</v>
+        <v>63.78</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
-        <v>10.29</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>3.56</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.86</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -583,6 +600,2570 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9442</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9230</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8759</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>561330</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属矿业主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9330,7 +11911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15112,7 +17693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17294,7 +19875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18296,7 +20877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18542,7 +21123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
